--- a/Overall Stats/Farmington/Farmington Report.xlsx
+++ b/Overall Stats/Farmington/Farmington Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Farmington\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282CB25F-2BC1-490C-83D3-F7AA3CDDEB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022745BA-1BF6-4C8D-81DF-521869DF65F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{76309924-9691-421C-8816-B3A583E8344E}"/>
+    <workbookView xWindow="5115" yWindow="1230" windowWidth="15375" windowHeight="7875" xr2:uid="{76309924-9691-421C-8816-B3A583E8344E}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>October</t>
-  </si>
-  <si>
-    <t>Farmington Report 2020</t>
   </si>
   <si>
     <t>Farmington</t>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Slow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Farmingtion</t>
   </si>
 </sst>
 </file>
@@ -219,9 +219,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,12 +229,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -261,6 +252,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,6 +829,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CB45-4C93-BF52-901A392FDA20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -872,6 +877,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CB45-4C93-BF52-901A392FDA20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2509,13 +2519,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BED0DE-E8AD-43E0-9D97-96D920B9F2C8}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -2528,7 +2538,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2541,260 +2551,260 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="F2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>77</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
         <v>21</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>47</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
         <v>26</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
         <v>27</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="16">
         <f>SUM(F4/$D10*100)</f>
         <v>1.2820512820512819</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <f>SUM(G4/$D10*100)</f>
         <v>98.71794871794873</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
         <v>28</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
         <v>30</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="15">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12">
         <f>SUM(D4:D9)</f>
         <v>78</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="14">
         <v>6</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="17">
+      <c r="A12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="14">
         <f>AVERAGE(D4:D9)</f>
         <v>13</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0DE404-264E-4090-B8A4-CEDB749888BB}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -2822,99 +2832,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <f>SUM('2020'!F4)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <f>SUM('2020'!G4)</f>
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="16">
         <f>AVERAGE(A3/$B7*100)</f>
         <v>1.2820512820512819</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <f>AVERAGE(B3/$B7*100)</f>
         <v>98.71794871794873</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="20">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17">
         <f>SUM('2020'!D10)</f>
         <v>78</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="20">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="17">
         <f>SUM('2020'!D11)</f>
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="20">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="17">
         <f>SUM('2020'!D12)</f>
         <v>13</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Overall Stats/Farmington/Farmington Report.xlsx
+++ b/Overall Stats/Farmington/Farmington Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Farmington\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022745BA-1BF6-4C8D-81DF-521869DF65F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DE8E01-DE8C-4B15-981D-BA3515CEC346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5115" yWindow="1230" windowWidth="15375" windowHeight="7875" xr2:uid="{76309924-9691-421C-8816-B3A583E8344E}"/>
   </bookViews>
@@ -2519,7 +2519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BED0DE-E8AD-43E0-9D97-96D920B9F2C8}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/Overall Stats/Farmington/Farmington Report.xlsx
+++ b/Overall Stats/Farmington/Farmington Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Farmington\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DE8E01-DE8C-4B15-981D-BA3515CEC346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2B1568-0A17-4366-BD4B-35E79E8E049F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1230" windowWidth="15375" windowHeight="7875" xr2:uid="{76309924-9691-421C-8816-B3A583E8344E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{76309924-9691-421C-8816-B3A583E8344E}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -2519,7 +2519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BED0DE-E8AD-43E0-9D97-96D920B9F2C8}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2821,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0DE404-264E-4090-B8A4-CEDB749888BB}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>

--- a/Overall Stats/Farmington/Farmington Report.xlsx
+++ b/Overall Stats/Farmington/Farmington Report.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Farmington\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2B1568-0A17-4366-BD4B-35E79E8E049F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FB077D-4F1B-4D4D-8AFA-7E26E69D7CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{76309924-9691-421C-8816-B3A583E8344E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{76309924-9691-421C-8816-B3A583E8344E}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="2021" sheetId="3" r:id="rId2"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -95,6 +103,12 @@
   </si>
   <si>
     <t>Fishing Report 2020 Farmingtion</t>
+  </si>
+  <si>
+    <t>5 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Farmington</t>
   </si>
 </sst>
 </file>
@@ -207,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,11 +270,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,7 +541,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,10 +930,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.2820512820512819</c:v>
+                  <c:v>1.2048192771084338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.71794871794873</c:v>
+                  <c:v>98.795180722891558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2519,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BED0DE-E8AD-43E0-9D97-96D920B9F2C8}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,22 +2577,22 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -2632,12 +2658,12 @@
       <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -2818,11 +2844,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4194D1E6-6FAD-4949-B9A8-312BAB0C3230}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="12">
+        <f>SUM(C4)</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="14">
+        <f>SUM(C4)</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="16">
+        <f>SUM(E4/C5*100)</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0DE404-264E-4090-B8A4-CEDB749888BB}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,12 +2995,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2855,17 +3018,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2020'!G4)</f>
-        <v>77</v>
+        <f>SUM('2020'!G4+'2021'!E4)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -2880,11 +3043,11 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>AVERAGE(A3/$B7*100)</f>
-        <v>1.2820512820512819</v>
+        <v>1.2048192771084338</v>
       </c>
       <c r="B6" s="16">
         <f>AVERAGE(B3/$B7*100)</f>
-        <v>98.71794871794873</v>
+        <v>98.795180722891558</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2894,8 +3057,8 @@
         <v>17</v>
       </c>
       <c r="B7" s="17">
-        <f>SUM('2020'!D10)</f>
-        <v>78</v>
+        <f>SUM('2020'!D10+'2021'!C5)</f>
+        <v>83</v>
       </c>
       <c r="C7" s="8"/>
     </row>
@@ -2903,9 +3066,9 @@
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17">
-        <f>SUM('2020'!D11)</f>
-        <v>6</v>
+      <c r="B8" s="25">
+        <f>SUM('2020'!D11+'2021'!C6)</f>
+        <v>7</v>
       </c>
       <c r="C8" s="10"/>
     </row>
